--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786AB78C-20A3-4838-A92D-91799B9701E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E236FF-84D1-4392-8D34-E414A6AE4373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="940" windowWidth="22410" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Test case #</t>
   </si>
@@ -776,7 +776,9 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" s="11">
         <v>58000000</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E236FF-84D1-4392-8D34-E414A6AE4373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00529822-5155-43E9-B1C9-C2652AA0A1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="940" windowWidth="22410" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="1050" yWindow="2180" windowWidth="20820" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Test case #</t>
   </si>
@@ -656,9 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
@@ -799,7 +797,9 @@
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>39</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00529822-5155-43E9-B1C9-C2652AA0A1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEAFF26-5984-41EB-ACB4-263F597D05C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="2180" windowWidth="20820" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Test case #</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Status refactored Python</t>
+  </si>
+  <si>
+    <t>unit test done**</t>
+  </si>
+  <si>
+    <t>** need to fix "funny" synonyms</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
@@ -820,7 +831,9 @@
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>40</v>
       </c>
@@ -1009,6 +1022,11 @@
       <c r="F17" s="1"/>
       <c r="L17" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="F19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12">

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEAFF26-5984-41EB-ACB4-263F597D05C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D836786B-9BAE-4DE4-8039-E63D7594C4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="2180" windowWidth="20820" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Test case #</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>** need to fix "funny" synonyms</t>
+  </si>
+  <si>
+    <t>unit test done (pending Luc validation)</t>
   </si>
 </sst>
 </file>
@@ -663,10 +666,10 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -854,7 +857,9 @@
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D836786B-9BAE-4DE4-8039-E63D7594C4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB53685-64A5-4BF7-88C7-F0850F6D5421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="2180" windowWidth="20820" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Test case #</t>
   </si>
@@ -666,10 +666,10 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -858,7 +858,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
@@ -878,7 +878,9 @@
         <v>52</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>44</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB53685-64A5-4BF7-88C7-F0850F6D5421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD266E-0136-4792-ADFE-36212D7F95DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="2180" windowWidth="20820" windowHeight="11630" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="180" yWindow="1300" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Test case #</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>** need to fix "funny" synonyms</t>
-  </si>
-  <si>
-    <t>unit test done (pending Luc validation)</t>
   </si>
 </sst>
 </file>
@@ -666,10 +663,10 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -879,7 +876,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>44</v>
@@ -899,7 +896,9 @@
         <v>15</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>45</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD266E-0136-4792-ADFE-36212D7F95DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8B185-A8BA-4005-B0B2-42449AD95F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1300" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="990" yWindow="1480" windowWidth="20820" windowHeight="11170" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testcases" sheetId="1" r:id="rId1"/>
+    <sheet name="failing testcases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>Test case #</t>
   </si>
@@ -246,12 +247,39 @@
   <si>
     <t>** need to fix "funny" synonyms</t>
   </si>
+  <si>
+    <t>plot line for Taxi Driver</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>symptom</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>doesn't pick up ranked_col value</t>
+  </si>
+  <si>
+    <t>"plot for Taxi Driver" works. Also "plot line for GoldenEye" doesn't work while "plot for GoldenEye" does</t>
+  </si>
+  <si>
+    <t>movies starring Sean Connery</t>
+  </si>
+  <si>
+    <t>bot responds w. "Bye"</t>
+  </si>
+  <si>
+    <t>"movies starring Connery" worked at one point - doesn't work now</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +319,20 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,6 +388,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,20 +706,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.4140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="41.1640625" hidden="1" customWidth="1"/>
@@ -741,7 +785,7 @@
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -785,7 +829,7 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="11">
@@ -808,7 +852,7 @@
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -831,7 +875,7 @@
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -854,7 +898,7 @@
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -875,7 +919,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1087,6 +1131,68 @@
     </row>
     <row r="109" spans="10:10">
       <c r="J109" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="47.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8B185-A8BA-4005-B0B2-42449AD95F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCD30DD-CB81-4BBB-B71C-80B015479D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1480" windowWidth="20820" windowHeight="11170" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="990" yWindow="1480" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>Test case #</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>rank Woody Allen movies by popularity</t>
-  </si>
-  <si>
-    <t>Show poster for Harry Meet Sally</t>
   </si>
   <si>
     <t>Show image</t>
@@ -274,12 +271,24 @@
   <si>
     <t>"movies starring Connery" worked at one point - doesn't work now</t>
   </si>
+  <si>
+    <t>"movies starring Mel Gibson" and "movies directed by Mel Gibson"</t>
+  </si>
+  <si>
+    <t>produce identical result</t>
+  </si>
+  <si>
+    <t>probably not right</t>
+  </si>
+  <si>
+    <t>Show poster for Heat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +342,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -390,6 +405,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,11 +722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -739,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
@@ -753,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -762,11 +778,11 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -783,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>9</v>
@@ -806,11 +822,11 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="31">
@@ -818,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>5</v>
@@ -827,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="11">
         <v>58000000</v>
@@ -850,13 +866,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31">
@@ -873,13 +889,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -887,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
@@ -896,13 +912,13 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32" customHeight="1">
@@ -910,20 +926,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39" customHeight="1">
@@ -940,11 +956,11 @@
         <v>15</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
+      <c r="F10" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -952,18 +968,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="31">
@@ -971,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -988,18 +1006,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31">
@@ -1007,10 +1025,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
@@ -1018,7 +1036,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1026,10 +1044,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
@@ -1043,13 +1061,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1060,40 +1078,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="46.5">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1102,13 +1120,13 @@
     <row r="23" spans="1:12" ht="46.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1117,13 +1135,13 @@
     <row r="24" spans="1:12" ht="31">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1140,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1155,43 +1173,54 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCD30DD-CB81-4BBB-B71C-80B015479D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4ADB26-DEB4-4F12-8B0E-9AB72F6FB4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1480" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="990" yWindow="1480" windowWidth="20820" windowHeight="11170" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>Test case #</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>Show poster for Heat</t>
+  </si>
+  <si>
+    <t>show poster for Toy Story</t>
+  </si>
+  <si>
+    <t>sometimes ends up in a "what would you like to do next loop"</t>
+  </si>
+  <si>
+    <t>itermittent and only happens with Toy Story as movie - could be partial matching on movie name</t>
   </si>
 </sst>
 </file>
@@ -722,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1158,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1223,6 +1232,17 @@
         <v>71</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4ADB26-DEB4-4F12-8B0E-9AB72F6FB4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE695C7-D168-49A2-98FB-56325F8E6DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1480" windowWidth="20820" windowHeight="11170" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="2070" yWindow="3140" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Test case #</t>
   </si>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,12 +351,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -378,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,7 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,11 +724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -965,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -986,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1024,7 +1017,9 @@
         <v>48</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" t="s">
         <v>47</v>
       </c>
@@ -1169,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE695C7-D168-49A2-98FB-56325F8E6DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2272C-2D2F-40CC-86B8-AD16B0745193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="3140" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>Test case #</t>
   </si>
@@ -725,10 +725,10 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1038,7 +1038,9 @@
         <v>15</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="7" t="s">
         <v>50</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2272C-2D2F-40CC-86B8-AD16B0745193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D887F3-596F-4AF2-BD34-EA1C32971834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="3140" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Test case #</t>
   </si>
@@ -725,10 +725,10 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -782,7 +782,9 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>35</v>
       </c>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D887F3-596F-4AF2-BD34-EA1C32971834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0038BEC1-B988-41A1-ACC7-81D69E8759A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3140" windowWidth="20820" windowHeight="11170" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="2230" yWindow="1370" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Test case #</t>
   </si>
@@ -291,6 +291,48 @@
   </si>
   <si>
     <t>itermittent and only happens with Toy Story as movie - could be partial matching on movie name</t>
+  </si>
+  <si>
+    <t>characters played by Cher</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>casing</t>
+  </si>
+  <si>
+    <t>characters and movies played by Cher</t>
+  </si>
+  <si>
+    <t>list too long</t>
+  </si>
+  <si>
+    <t>list for characters played by Cher is correct</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>poster for Gone with the Wind</t>
+  </si>
+  <si>
+    <t>shows poster for Gone Fishin</t>
+  </si>
+  <si>
+    <t>too loose matching</t>
+  </si>
+  <si>
+    <t>overall casing</t>
+  </si>
+  <si>
+    <t>inconsistent results</t>
+  </si>
+  <si>
+    <t>director of GoldenEye</t>
+  </si>
+  <si>
+    <t>same for any query with condition_col in movies and ranked_col in a child table</t>
   </si>
 </sst>
 </file>
@@ -724,11 +766,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -743,7 +785,7 @@
     <col min="12" max="12" width="41.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31">
+    <row r="1" spans="1:12" ht="46.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1106,7 @@
       <c r="F15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="31">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1081,7 +1123,7 @@
       <c r="F16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="31">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1105,12 +1147,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="31">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="46.5">
+    <row r="22" spans="1:12" ht="124">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
         <v>24</v>
@@ -1125,7 +1167,7 @@
       <c r="F22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="46.5">
+    <row r="23" spans="1:12" ht="108.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -1140,7 +1182,7 @@
       <c r="F23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="31">
+    <row r="24" spans="1:12" ht="108.5">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
         <v>27</v>
@@ -1166,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1177,9 +1219,10 @@
     <col min="1" max="1" width="24.58203125" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="4" max="4" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1">
+    <row r="1" spans="1:4" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
@@ -1189,8 +1232,11 @@
       <c r="C1" s="16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1201,7 +1247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1212,7 +1258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1220,7 +1266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1231,7 +1277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1240,6 +1286,58 @@
       </c>
       <c r="C6" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0038BEC1-B988-41A1-ACC7-81D69E8759A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B3CD2-CDA3-46A0-AA93-E984875E4A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2230" yWindow="1370" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Test case #</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>same for any query with condition_col in movies and ranked_col in a child table</t>
+  </si>
+  <si>
+    <t>roles played by Sean Connery</t>
+  </si>
+  <si>
+    <t>"what would you like to do next"</t>
+  </si>
+  <si>
+    <t>something about Connery sets it off</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1340,6 +1349,17 @@
         <v>89</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B3CD2-CDA3-46A0-AA93-E984875E4A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BE300-1EE7-467C-8D1A-04C21EACA33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="1370" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="3560" yWindow="640" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>Test case #</t>
   </si>
@@ -342,6 +342,21 @@
   </si>
   <si>
     <t>something about Connery sets it off</t>
+  </si>
+  <si>
+    <t>movies directed by Coppola</t>
+  </si>
+  <si>
+    <t>correct answers repeated due to partial matches</t>
+  </si>
+  <si>
+    <t>overall story flow</t>
+  </si>
+  <si>
+    <t>get "what would you like to do next" from random searches</t>
+  </si>
+  <si>
+    <t>maybe clear out all extraneous stories and keep only queries - add in multi-utterance stories later when queries complete</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1360,6 +1375,25 @@
         <v>92</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BE300-1EE7-467C-8D1A-04C21EACA33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE7F8F-7933-46C4-9159-A90E1739AFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="640" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
     <sheet name="failing testcases" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>Test case #</t>
   </si>
@@ -357,6 +360,24 @@
   </si>
   <si>
     <t>maybe clear out all extraneous stories and keep only queries - add in multi-utterance stories later when queries complete</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>needs investigation</t>
+  </si>
+  <si>
+    <t>need to fix casing</t>
+  </si>
+  <si>
+    <t>show trailer</t>
+  </si>
+  <si>
+    <t>FM api takes the required settings for video, but no response in FM. Same API works for still images.</t>
+  </si>
+  <si>
+    <t>Need to post request in Rasa forum showing failing use case and ask for help</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1270,6 +1291,9 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -1281,6 +1305,9 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -1289,6 +1316,9 @@
       <c r="B4" t="s">
         <v>67</v>
       </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -1300,6 +1330,9 @@
       <c r="C5" t="s">
         <v>71</v>
       </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -1322,6 +1355,9 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -1374,6 +1410,9 @@
       <c r="C12" t="s">
         <v>92</v>
       </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1394,7 +1433,19 @@
         <v>97</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D15" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE7F8F-7933-46C4-9159-A90E1739AFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F82309-AC78-410A-BF15-0D4F04E172B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="640" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="570" yWindow="530" windowWidth="21970" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
     <sheet name="failing testcases" sheetId="2" r:id="rId2"/>
+    <sheet name="query variations" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="142">
   <si>
     <t>Test case #</t>
   </si>
@@ -379,12 +381,126 @@
   <si>
     <t>Need to post request in Rasa forum showing failing use case and ask for help</t>
   </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>rank cols</t>
+  </si>
+  <si>
+    <t>rank table</t>
+  </si>
+  <si>
+    <t>condition cols</t>
+  </si>
+  <si>
+    <t>condition table</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>rank [Woody Allen](director) [movies](ranked_col)</t>
+  </si>
+  <si>
+    <t>list [movies](ranked_col) with [Marilyn Monroe](cast_name) and [Jack Lemmon](cast_name)</t>
+  </si>
+  <si>
+    <t>[characters](ranked_col) played by [Tom Hanks](cast_name)</t>
+  </si>
+  <si>
+    <t>[Director](ranked_col) for [Heat](movie)</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>cast_name</t>
+  </si>
+  <si>
+    <t>cast_name, cast_name</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>characters, movies</t>
+  </si>
+  <si>
+    <t>cast, movies</t>
+  </si>
+  <si>
+    <t>what [year](ranked_col) did [Toy Story](movie) come out</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>one table</t>
+  </si>
+  <si>
+    <t>[romance](genre:Romance) [movies](ranked_col)</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>Python query</t>
+  </si>
+  <si>
+    <t>[credits where director=WA][movie_id]&amp;[movie][original_title]</t>
+  </si>
+  <si>
+    <t>[roles](ranked_col:characters) and [movies](ranked_col) played by [Sean Connery](cast_name)</t>
+  </si>
+  <si>
+    <t>[cast where cast_name=SC][movie_id,character]&amp;[movie][original_title]</t>
+  </si>
+  <si>
+    <t>[movie where original_title=H][id]&amp;[credits][Director]</t>
+  </si>
+  <si>
+    <t>focus on what the final join looks like join based on what the rank is - table that wasn't part of sub_table and pull all columns</t>
+  </si>
+  <si>
+    <t>Producer, Editor and Director of The Godfather</t>
+  </si>
+  <si>
+    <t>only return Editor and Director</t>
+  </si>
+  <si>
+    <t>commas don't work correctly</t>
+  </si>
+  <si>
+    <t>movies about sibling rivalry</t>
+  </si>
+  <si>
+    <t>movies about dogs</t>
+  </si>
+  <si>
+    <t>movies about midlife crisis works</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,6 +554,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,10 +582,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -459,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,6 +669,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1281,42 +1474,42 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="23" customFormat="1">
+      <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" s="23" customFormat="1">
+      <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" s="23" customFormat="1">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1389,28 +1582,31 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" s="23" customFormat="1">
+      <c r="A11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="D11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="23" customFormat="1">
+      <c r="A12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1444,8 +1640,225 @@
         <v>103</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}"/>
+  <autoFilter ref="A1:D18" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B43F9E-FFC7-4D12-A7E4-67E1DBD2E306}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="7.58203125" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1">
+      <c r="B2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" thickBot="1">
+      <c r="B3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" thickBot="1">
+      <c r="B4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" thickBot="1">
+      <c r="B5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1">
+      <c r="B6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29">
+      <c r="F10" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F82309-AC78-410A-BF15-0D4F04E172B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E69A54-8827-47C5-819E-390553E06BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="570" yWindow="530" windowWidth="21970" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
   <si>
     <t>Test case #</t>
   </si>
@@ -494,6 +494,36 @@
   </si>
   <si>
     <t>movies about midlife crisis works</t>
+  </si>
+  <si>
+    <t>show poster for Ballroom Blitz</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>should generate a message for empty media - don't just sit there</t>
+  </si>
+  <si>
+    <t>plot for Dead Man Walking / Carlito's Way</t>
+  </si>
+  <si>
+    <t>actors in Richard III</t>
+  </si>
+  <si>
+    <t>characters played by Sean Connery</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>interim result is correct but it gets clobbered</t>
+  </si>
+  <si>
+    <t>actors who played Boris Grishenko</t>
+  </si>
+  <si>
+    <t>only works for character names explictly in the training set</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1476,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1668,6 +1701,52 @@
       </c>
       <c r="C18" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E69A54-8827-47C5-819E-390553E06BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2A49E9-8845-4B69-97B0-6B7AFC050F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="530" windowWidth="21970" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="480" yWindow="1010" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
   <si>
     <t>Test case #</t>
   </si>
@@ -517,13 +517,46 @@
     <t>empty</t>
   </si>
   <si>
-    <t>interim result is correct but it gets clobbered</t>
-  </si>
-  <si>
     <t>actors who played Boris Grishenko</t>
   </si>
   <si>
     <t>only works for character names explictly in the training set</t>
+  </si>
+  <si>
+    <t>interim result is correct but it gets clobbered; may be due to movies missing due to clobbered dataset</t>
+  </si>
+  <si>
+    <t>remove extraneous results</t>
+  </si>
+  <si>
+    <t>e.g. "actors who played James Bond" contains multiple entries for actors who played in multiple movies</t>
+  </si>
+  <si>
+    <t>should be possible to fix in display</t>
+  </si>
+  <si>
+    <t>characters and actors in Jaws</t>
+  </si>
+  <si>
+    <t>get 10 repeats of the same result</t>
+  </si>
+  <si>
+    <t>something "fishy" in the final join, probably</t>
+  </si>
+  <si>
+    <t>characters in Showgirls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general issue with some movie titles </t>
+  </si>
+  <si>
+    <t>movies directed by Alan Smithee</t>
+  </si>
+  <si>
+    <t>empty return</t>
+  </si>
+  <si>
+    <t>Alan Smithee shows up in director of Ghost Fever</t>
   </si>
 </sst>
 </file>
@@ -1476,13 +1509,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1738,15 +1771,59 @@
         <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
-        <v>151</v>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2A49E9-8845-4B69-97B0-6B7AFC050F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F841A6-1D4B-4A94-8EE5-3B4DDE43E56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1010" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="166">
   <si>
     <t>Test case #</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>Alan Smithee shows up in director of Ghost Fever</t>
+  </si>
+  <si>
+    <t>movies and characters played by Merly Streep</t>
+  </si>
+  <si>
+    <t>duplicates. Characters and movies played by Meryl Streep is correct</t>
+  </si>
+  <si>
+    <t>probably join problem - also a display problem - should show a max of 10 examples</t>
   </si>
 </sst>
 </file>
@@ -1509,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1824,6 +1833,17 @@
       </c>
       <c r="C27" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F841A6-1D4B-4A94-8EE5-3B4DDE43E56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7D548-E8AC-4B53-8C1F-0B95F77A4DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1010" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="180">
   <si>
     <t>Test case #</t>
   </si>
@@ -566,6 +566,48 @@
   </si>
   <si>
     <t>probably join problem - also a display problem - should show a max of 10 examples</t>
+  </si>
+  <si>
+    <t>small poster for Blade Runner</t>
+  </si>
+  <si>
+    <t>shows normal poster</t>
+  </si>
+  <si>
+    <t>is there a small poster?</t>
+  </si>
+  <si>
+    <t>genre of Blade Runner</t>
+  </si>
+  <si>
+    <t>no response</t>
+  </si>
+  <si>
+    <t>missing training item</t>
+  </si>
+  <si>
+    <t>cast of Blade Runner</t>
+  </si>
+  <si>
+    <t>Star Wars movies</t>
+  </si>
+  <si>
+    <t>missing training item?</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>December milestone</t>
+  </si>
+  <si>
+    <t>year of Star Wars</t>
+  </si>
+  <si>
+    <t>list years of all</t>
+  </si>
+  <si>
+    <t>ambiguous - need to clarify intent of request</t>
   </si>
 </sst>
 </file>
@@ -1518,13 +1560,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1535,7 +1577,7 @@
     <col min="4" max="4" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1">
+    <row r="1" spans="1:5" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
@@ -1548,8 +1590,11 @@
       <c r="D1" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="23" customFormat="1">
+      <c r="E1" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
@@ -1563,7 +1608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="23" customFormat="1">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
@@ -1577,7 +1622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="23" customFormat="1">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1602,7 +1647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1613,7 +1658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1627,7 +1672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1638,7 +1683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1649,7 +1694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1657,7 +1702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="23" customFormat="1">
+    <row r="11" spans="1:5" s="23" customFormat="1">
       <c r="A11" s="23" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +1716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="23" customFormat="1">
+    <row r="12" spans="1:5" s="23" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>90</v>
       </c>
@@ -1685,7 +1730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -1693,7 +1738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1704,7 +1749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1715,7 +1760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1726,7 +1771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -1734,7 +1779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1745,7 +1790,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -1756,7 +1801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -1764,7 +1809,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -1772,7 +1817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -1783,7 +1828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -1813,7 +1858,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -1824,7 +1869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -1835,7 +1880,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -1844,6 +1889,85 @@
       </c>
       <c r="C28" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7D548-E8AC-4B53-8C1F-0B95F77A4DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA2F899-77F2-4F48-B240-7AE5DAADD340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1010" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="480" yWindow="1700" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
     <sheet name="failing testcases" sheetId="2" r:id="rId2"/>
     <sheet name="query variations" sheetId="3" r:id="rId3"/>
+    <sheet name="slotlist" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$18</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="269">
   <si>
     <t>Test case #</t>
   </si>
@@ -608,6 +609,273 @@
   </si>
   <si>
     <t>ambiguous - need to clarify intent of request</t>
+  </si>
+  <si>
+    <t>cast of Apollo 13</t>
+  </si>
+  <si>
+    <t>Top 10 science fiction movies</t>
+  </si>
+  <si>
+    <t>ascending_descending</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>condition_col</t>
+  </si>
+  <si>
+    <t>condition_operator</t>
+  </si>
+  <si>
+    <t>condition_val</t>
+  </si>
+  <si>
+    <t>Costume_Design</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>original_language</t>
+  </si>
+  <si>
+    <t>persistance</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>rank_axis</t>
+  </si>
+  <si>
+    <t>ranked_col</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>row_number</t>
+  </si>
+  <si>
+    <t>row_range</t>
+  </si>
+  <si>
+    <t>sort_col</t>
+  </si>
+  <si>
+    <t>top_bottom</t>
+  </si>
+  <si>
+    <t>return[SlotSet("ranked_col",None),SlotSet("character",None)]</t>
+  </si>
+  <si>
+    <t>Slotset('budget',None),</t>
+  </si>
+  <si>
+    <t>Slotset('cast_name',None),</t>
+  </si>
+  <si>
+    <t>Slotset('character',None),</t>
+  </si>
+  <si>
+    <t>Slotset('condition_col',None),</t>
+  </si>
+  <si>
+    <t>Slotset('condition_operator',None),</t>
+  </si>
+  <si>
+    <t>Slotset('condition_val',None),</t>
+  </si>
+  <si>
+    <t>Slotset('Costume_Design',None),</t>
+  </si>
+  <si>
+    <t>Slotset('Director',None),</t>
+  </si>
+  <si>
+    <t>Slotset('Editor',None),</t>
+  </si>
+  <si>
+    <t>Slotset('file_name',None),</t>
+  </si>
+  <si>
+    <t>Slotset('genre',None),</t>
+  </si>
+  <si>
+    <t>Slotset('keyword',None),</t>
+  </si>
+  <si>
+    <t>Slotset('language',None),</t>
+  </si>
+  <si>
+    <t>Slotset('media',None),</t>
+  </si>
+  <si>
+    <t>Slotset('movie',None),</t>
+  </si>
+  <si>
+    <t>Slotset('original_language',None),</t>
+  </si>
+  <si>
+    <t>Slotset('persistance',None),</t>
+  </si>
+  <si>
+    <t>Slotset('plot',None),</t>
+  </si>
+  <si>
+    <t>Slotset('Producer',None),</t>
+  </si>
+  <si>
+    <t>Slotset('rank_axis',None),</t>
+  </si>
+  <si>
+    <t>Slotset('ranked_col',None),</t>
+  </si>
+  <si>
+    <t>Slotset('revenue',None),</t>
+  </si>
+  <si>
+    <t>Slotset('row_number',None),</t>
+  </si>
+  <si>
+    <t>Slotset('row_range',None),</t>
+  </si>
+  <si>
+    <t>Slotset('sort_col',None),</t>
+  </si>
+  <si>
+    <t>Slotset('top_bottom',None),</t>
+  </si>
+  <si>
+    <t>Slotset('year',None),</t>
+  </si>
+  <si>
+    <t>Slotset('ascending_descending',None),</t>
+  </si>
+  <si>
+    <t>clearing string:</t>
+  </si>
+  <si>
+    <t>return[Slotset('budget',None),Slotset('cast_name',None),Slotset('character',None),Slotset('condition_col',None),Slotset('condition_operator',None),Slotset('condition_val',None),Slotset('Costume_Design',None),Slotset('Director',None),Slotset('Editor',None),Slotset('file_name',None),Slotset('genre',None),Slotset('keyword',None),Slotset('language',None),Slotset('media',None),Slotset('movie',None),</t>
+  </si>
+  <si>
+    <t>Slotset('original_language',None),Slotset('persistance',None),Slotset('plot',None),Slotset('Producer',None),Slotset('rank_axis',None),Slotset('ranked_col',None),Slotset('revenue',None),Slotset('row_number',None),Slotset('row_range',None),Slotset('sort_col',None),</t>
+  </si>
+  <si>
+    <t>Slotset('top_bottom',None),Slotset('year',None),Slotset('ascending_descending',None)]</t>
+  </si>
+  <si>
+    <t>SlotSet('budget',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('cast_name',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('character',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('condition_col',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('condition_operator',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('condition_val',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('Costume_Design',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('Director',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('Editor',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('file_name',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('genre',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('keyword',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('language',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('media',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('movie',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('original_language',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('persistance',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('plot',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('Producer',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('rank_axis',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('ranked_col',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('revenue',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('row_number',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('row_range',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('sort_col',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('top_bottom',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('year',None),</t>
+  </si>
+  <si>
+    <t>SlotSet('ascending_descending',None),</t>
+  </si>
+  <si>
+    <t>top thrillers</t>
+  </si>
+  <si>
+    <t>answers not correct</t>
+  </si>
+  <si>
+    <t>missing trainint item</t>
   </si>
 </sst>
 </file>
@@ -1560,13 +1828,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1968,6 +2236,45 @@
       </c>
       <c r="E33" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2162,4 +2469,583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECF38F2-7897-4D65-8C13-AE2B780A481B}">
+  <dimension ref="A1:AB34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE("'",A2,"'")</f>
+        <v>'budget'</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("SlotSet(", B2,",None),")</f>
+        <v>SlotSet('budget',None),</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B29" si="0">CONCATENATE("'",A3,"'")</f>
+        <v>'cast_name'</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:D29" si="1">CONCATENATE("SlotSet(", B3,",None),")</f>
+        <v>SlotSet('cast_name',None),</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'character'</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('character',None),</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'condition_col'</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('condition_col',None),</v>
+      </c>
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'condition_operator'</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('condition_operator',None),</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'condition_val'</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('condition_val',None),</v>
+      </c>
+      <c r="D7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Costume_Design'</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('Costume_Design',None),</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Director'</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('Director',None),</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Editor'</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('Editor',None),</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'file_name'</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('file_name',None),</v>
+      </c>
+      <c r="D11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'genre'</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('genre',None),</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'keyword'</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('keyword',None),</v>
+      </c>
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'language'</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('language',None),</v>
+      </c>
+      <c r="D14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'media'</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('media',None),</v>
+      </c>
+      <c r="D15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'movie'</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('movie',None),</v>
+      </c>
+      <c r="D16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'original_language'</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('original_language',None),</v>
+      </c>
+      <c r="D17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'persistance'</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('persistance',None),</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'plot'</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('plot',None),</v>
+      </c>
+      <c r="D19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'Producer'</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('Producer',None),</v>
+      </c>
+      <c r="D20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'rank_axis'</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('rank_axis',None),</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'ranked_col'</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('ranked_col',None),</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'revenue'</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('revenue',None),</v>
+      </c>
+      <c r="D23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'row_number'</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('row_number',None),</v>
+      </c>
+      <c r="D24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'row_range'</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('row_range',None),</v>
+      </c>
+      <c r="D25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'sort_col'</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('sort_col',None),</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'top_bottom'</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('top_bottom',None),</v>
+      </c>
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'year'</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('year',None),</v>
+      </c>
+      <c r="D28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'ascending_descending'</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>SlotSet('ascending_descending',None),</v>
+      </c>
+      <c r="D29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" t="s">
+        <v>218</v>
+      </c>
+      <c r="N31" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>222</v>
+      </c>
+      <c r="R31" t="s">
+        <v>223</v>
+      </c>
+      <c r="S31" t="s">
+        <v>224</v>
+      </c>
+      <c r="T31" t="s">
+        <v>225</v>
+      </c>
+      <c r="U31" t="s">
+        <v>226</v>
+      </c>
+      <c r="V31" t="s">
+        <v>227</v>
+      </c>
+      <c r="W31" t="s">
+        <v>228</v>
+      </c>
+      <c r="X31" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A29">
+    <sortCondition ref="A2:A29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA2F899-77F2-4F48-B240-7AE5DAADD340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D8BFD-EA4F-41E1-A559-3E51C39B5FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1700" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="272">
   <si>
     <t>Test case #</t>
   </si>
@@ -876,6 +876,15 @@
   </si>
   <si>
     <t>missing trainint item</t>
+  </si>
+  <si>
+    <t>Top 5 thrillers</t>
+  </si>
+  <si>
+    <t>not able to specify number of answers displayed</t>
+  </si>
+  <si>
+    <t>fixed for "top" query - need additional training items for other queries</t>
   </si>
 </sst>
 </file>
@@ -1828,13 +1837,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2275,6 +2284,29 @@
       </c>
       <c r="C36" t="s">
         <v>268</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D8BFD-EA4F-41E1-A559-3E51C39B5FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EF7BA-E46C-42CA-B60F-F48739DEEAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1700" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="275">
   <si>
     <t>Test case #</t>
   </si>
@@ -885,6 +885,15 @@
   </si>
   <si>
     <t>fixed for "top" query - need additional training items for other queries</t>
+  </si>
+  <si>
+    <t>extraneous "what do you want to do" messages</t>
+  </si>
+  <si>
+    <t>getting these messages unexpectedly</t>
+  </si>
+  <si>
+    <t>something needs to be fixed in default stories</t>
   </si>
 </sst>
 </file>
@@ -1837,13 +1846,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2307,6 +2316,17 @@
       </c>
       <c r="E37" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EF7BA-E46C-42CA-B60F-F48739DEEAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E22BC-6C6D-4A57-9F9E-64D26CC8A3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1700" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="285">
   <si>
     <t>Test case #</t>
   </si>
@@ -875,25 +875,55 @@
     <t>answers not correct</t>
   </si>
   <si>
-    <t>missing trainint item</t>
-  </si>
-  <si>
     <t>Top 5 thrillers</t>
   </si>
   <si>
     <t>not able to specify number of answers displayed</t>
   </si>
   <si>
-    <t>fixed for "top" query - need additional training items for other queries</t>
-  </si>
-  <si>
     <t>extraneous "what do you want to do" messages</t>
   </si>
   <si>
-    <t>getting these messages unexpectedly</t>
-  </si>
-  <si>
     <t>something needs to be fixed in default stories</t>
+  </si>
+  <si>
+    <t>top 5 horror movies</t>
+  </si>
+  <si>
+    <t>top thrillers works; top 3 thrillers crashes row_rank not filled in</t>
+  </si>
+  <si>
+    <t>poster for 101 Dalmations</t>
+  </si>
+  <si>
+    <t>poster for The Little Mermaid</t>
+  </si>
+  <si>
+    <t>shows poster for The Little Rascals</t>
+  </si>
+  <si>
+    <t>too broad matching</t>
+  </si>
+  <si>
+    <t>rating for Captain America</t>
+  </si>
+  <si>
+    <t>should return popularity by default</t>
+  </si>
+  <si>
+    <t>top 3 science fiction movies</t>
+  </si>
+  <si>
+    <t>error message; top 3 horror movies, drama movies, etc fine</t>
+  </si>
+  <si>
+    <t>misinterpreting number of results as year - subtle error of not using ran</t>
+  </si>
+  <si>
+    <t>getting these messages after "top comedies" but not after "top comedy movies" - get correct result after second entry of query</t>
+  </si>
+  <si>
+    <t>issue with number in movie title</t>
   </si>
 </sst>
 </file>
@@ -1846,13 +1876,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2263,6 +2293,9 @@
       <c r="B34" t="s">
         <v>77</v>
       </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
       <c r="E34" t="s">
         <v>176</v>
       </c>
@@ -2292,7 +2325,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
         <v>98</v>
@@ -2303,16 +2336,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
         <v>269</v>
       </c>
-      <c r="B37" t="s">
-        <v>270</v>
-      </c>
       <c r="C37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
         <v>176</v>
@@ -2320,13 +2350,77 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>272</v>
       </c>
-      <c r="B38" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>274</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E22BC-6C6D-4A57-9F9E-64D26CC8A3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49EF4FC-3360-492C-92C6-6BF442133780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1700" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="slotlist" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="290">
   <si>
     <t>Test case #</t>
   </si>
@@ -521,9 +521,6 @@
     <t>actors who played Boris Grishenko</t>
   </si>
   <si>
-    <t>only works for character names explictly in the training set</t>
-  </si>
-  <si>
     <t>interim result is correct but it gets clobbered; may be due to movies missing due to clobbered dataset</t>
   </si>
   <si>
@@ -924,13 +921,31 @@
   </si>
   <si>
     <t>issue with number in movie title</t>
+  </si>
+  <si>
+    <t>characters played by Roger Moore</t>
+  </si>
+  <si>
+    <t>show James Bond multiple times</t>
+  </si>
+  <si>
+    <t>need to fix dups in output</t>
+  </si>
+  <si>
+    <t>empty result; only works for character names explictly in the training set</t>
+  </si>
+  <si>
+    <t>plot for Taxi Driver</t>
+  </si>
+  <si>
+    <t>get an extranous hit for no-name film</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1003,6 +1018,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1063,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,6 +1147,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1876,13 +1907,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1907,7 +1938,7 @@
         <v>82</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="23" customFormat="1">
@@ -2133,15 +2164,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" s="24" customFormat="1">
+      <c r="A22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C22" t="s">
-        <v>151</v>
+      <c r="C22" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2149,230 +2183,230 @@
         <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
         <v>152</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>153</v>
-      </c>
-      <c r="C24" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>156</v>
-      </c>
-      <c r="C25" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
         <v>160</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>161</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
         <v>163</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>164</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
         <v>166</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>167</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="25" customFormat="1">
+      <c r="A30" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="E29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="B30" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="25" customFormat="1">
+      <c r="A31" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="E31" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="25" customFormat="1">
+      <c r="A32" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>176</v>
+      <c r="E32" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
         <v>177</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>178</v>
       </c>
-      <c r="C33" t="s">
-        <v>179</v>
-      </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1">
+      <c r="A35" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="E35" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1">
+      <c r="A36" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E36" t="s">
-        <v>176</v>
+      <c r="E36" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" t="s">
         <v>268</v>
       </c>
-      <c r="B37" t="s">
-        <v>269</v>
-      </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" t="s">
         <v>270</v>
       </c>
-      <c r="B38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:5" s="25" customFormat="1">
+      <c r="A39" s="25" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E39" t="s">
-        <v>176</v>
+      <c r="E39" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -2380,51 +2414,73 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" t="s">
         <v>275</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>276</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:5" s="25" customFormat="1">
+      <c r="A42" s="25" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="B42" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="25" customFormat="1">
+      <c r="A43" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B43" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
-        <v>176</v>
+      <c r="E43" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D18" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}"/>
+  <autoFilter ref="A1:D45" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2635,12 +2691,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("'",A2,"'")</f>
@@ -2651,7 +2707,7 @@
         <v>SlotSet('budget',None),</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2667,12 +2723,12 @@
         <v>SlotSet('cast_name',None),</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -2683,12 +2739,12 @@
         <v>SlotSet('character',None),</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -2699,12 +2755,12 @@
         <v>SlotSet('condition_col',None),</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -2715,12 +2771,12 @@
         <v>SlotSet('condition_operator',None),</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -2731,12 +2787,12 @@
         <v>SlotSet('condition_val',None),</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -2747,12 +2803,12 @@
         <v>SlotSet('Costume_Design',None),</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -2763,12 +2819,12 @@
         <v>SlotSet('Director',None),</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -2779,12 +2835,12 @@
         <v>SlotSet('Editor',None),</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -2795,7 +2851,7 @@
         <v>SlotSet('file_name',None),</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2811,7 +2867,7 @@
         <v>SlotSet('genre',None),</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2827,12 +2883,12 @@
         <v>SlotSet('keyword',None),</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -2843,12 +2899,12 @@
         <v>SlotSet('language',None),</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -2859,7 +2915,7 @@
         <v>SlotSet('media',None),</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2875,12 +2931,12 @@
         <v>SlotSet('movie',None),</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -2891,12 +2947,12 @@
         <v>SlotSet('original_language',None),</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -2907,12 +2963,12 @@
         <v>SlotSet('persistance',None),</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -2923,12 +2979,12 @@
         <v>SlotSet('plot',None),</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -2939,12 +2995,12 @@
         <v>SlotSet('Producer',None),</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -2955,12 +3011,12 @@
         <v>SlotSet('rank_axis',None),</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -2971,12 +3027,12 @@
         <v>SlotSet('ranked_col',None),</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -2987,12 +3043,12 @@
         <v>SlotSet('revenue',None),</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -3003,12 +3059,12 @@
         <v>SlotSet('row_number',None),</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -3019,12 +3075,12 @@
         <v>SlotSet('row_range',None),</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -3035,12 +3091,12 @@
         <v>SlotSet('sort_col',None),</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -3051,7 +3107,7 @@
         <v>SlotSet('top_bottom',None),</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3067,12 +3123,12 @@
         <v>SlotSet('year',None),</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -3083,109 +3139,109 @@
         <v>SlotSet('ascending_descending',None),</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
         <v>206</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>207</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>208</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>209</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>210</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>211</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>213</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>214</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>215</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>216</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>217</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>218</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>219</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>220</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>221</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>222</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>223</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>224</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>225</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>226</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>227</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>228</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>229</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>230</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>231</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>232</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
         <v>235</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/movies-testCases-noOutput 1.3.xlsx
+++ b/testcases/movies-testCases-noOutput 1.3.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49EF4FC-3360-492C-92C6-6BF442133780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0BEB3-65A2-422A-AB3E-471FA3AE3108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1700" windowWidth="21970" windowHeight="12880" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="430" yWindow="2170" windowWidth="20820" windowHeight="11630" activeTab="1" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
     <sheet name="failing testcases" sheetId="2" r:id="rId2"/>
-    <sheet name="query variations" sheetId="3" r:id="rId3"/>
-    <sheet name="slotlist" sheetId="4" r:id="rId4"/>
+    <sheet name="functional items (summary from " sheetId="5" r:id="rId3"/>
+    <sheet name="query variations" sheetId="3" r:id="rId4"/>
+    <sheet name="slotlist" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'failing testcases'!$A$1:$D$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="309">
   <si>
     <t>Test case #</t>
   </si>
@@ -368,12 +369,6 @@
     <t>fixed</t>
   </si>
   <si>
-    <t>needs investigation</t>
-  </si>
-  <si>
-    <t>need to fix casing</t>
-  </si>
-  <si>
     <t>show trailer</t>
   </si>
   <si>
@@ -557,9 +552,6 @@
     <t>Alan Smithee shows up in director of Ghost Fever</t>
   </si>
   <si>
-    <t>movies and characters played by Merly Streep</t>
-  </si>
-  <si>
     <t>duplicates. Characters and movies played by Meryl Streep is correct</t>
   </si>
   <si>
@@ -890,9 +882,6 @@
     <t>top thrillers works; top 3 thrillers crashes row_rank not filled in</t>
   </si>
   <si>
-    <t>poster for 101 Dalmations</t>
-  </si>
-  <si>
     <t>poster for The Little Mermaid</t>
   </si>
   <si>
@@ -939,13 +928,82 @@
   </si>
   <si>
     <t>get an extranous hit for no-name film</t>
+  </si>
+  <si>
+    <t>year of The Wizard of Oz</t>
+  </si>
+  <si>
+    <t>too broad matching - update matching code to do an exact match if it's available and only go to fuzzy match if exact match not available</t>
+  </si>
+  <si>
+    <t>poster for The  Godfather</t>
+  </si>
+  <si>
+    <t>doesn't pick up condition_col value</t>
+  </si>
+  <si>
+    <t>probably some kind of training error - this did work prior to the casing and fuzzy match changes</t>
+  </si>
+  <si>
+    <t>fonts for FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can FM return the form factor (phone, </t>
+  </si>
+  <si>
+    <t>do posters come in different sizes?</t>
+  </si>
+  <si>
+    <t>implement different poster sizes</t>
+  </si>
+  <si>
+    <t>actor ID vs. actor name</t>
+  </si>
+  <si>
+    <t>movies and characters played by Meryl Streep</t>
+  </si>
+  <si>
+    <t>poster for 101 Dalmatians</t>
+  </si>
+  <si>
+    <t>originally mis-spelled</t>
+  </si>
+  <si>
+    <t>only gets 1989 - not original; "year of wizard of oz" gives many hits; "poster of wizard of oz" gives intended hit</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/4</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/6</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanmark1867/chatbot/issues/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1032,6 +1090,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1089,10 +1155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1149,8 +1216,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1466,7 +1535,7 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
@@ -1907,13 +1976,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E06B8-7E8D-4A97-80C0-D2239A162A62}">
-  <dimension ref="A1:E45"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1938,10 +2008,10 @@
         <v>82</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="23" customFormat="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="23" customFormat="1" hidden="1">
       <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
@@ -1955,7 +2025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1">
+    <row r="3" spans="1:5" s="23" customFormat="1" hidden="1">
       <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
@@ -1969,7 +2039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1">
+    <row r="4" spans="1:5" s="23" customFormat="1" hidden="1">
       <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
@@ -1980,7 +2050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1991,10 +2061,10 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2004,8 +2074,11 @@
       <c r="C6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2016,10 +2089,10 @@
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2029,8 +2102,11 @@
       <c r="C8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2040,16 +2116,22 @@
       <c r="C9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="23" customFormat="1">
+      <c r="D10" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="23" customFormat="1" hidden="1">
       <c r="A11" s="23" t="s">
         <v>88</v>
       </c>
@@ -2063,7 +2145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="23" customFormat="1">
+    <row r="12" spans="1:5" s="23" customFormat="1" hidden="1">
       <c r="A12" s="23" t="s">
         <v>90</v>
       </c>
@@ -2077,12 +2159,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" t="s">
         <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>94</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2095,84 +2180,108 @@
       <c r="C14" t="s">
         <v>97</v>
       </c>
+      <c r="D14" s="26" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
+      <c r="D15" s="26" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
         <v>136</v>
       </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" t="s">
-        <v>138</v>
+      <c r="D16" s="26" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
+      <c r="D17" s="26" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
         <v>142</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1">
+      <c r="A20" t="s">
         <v>143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>145</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="24" customFormat="1">
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="24" customFormat="1" hidden="1">
       <c r="A22" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>98</v>
@@ -2180,313 +2289,456 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
         <v>151</v>
       </c>
-      <c r="B24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>153</v>
+      <c r="D24" s="26" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
         <v>154</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
+      <c r="A26" t="s">
         <v>155</v>
-      </c>
-      <c r="C25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>157</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" t="s">
-        <v>164</v>
+      <c r="D28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="25" customFormat="1" hidden="1">
+      <c r="A30" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="E29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="25" customFormat="1">
-      <c r="A30" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="25" customFormat="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="25" customFormat="1" hidden="1">
       <c r="A31" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="25" customFormat="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="25" customFormat="1" hidden="1">
       <c r="A32" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1">
+      <c r="A34" t="s">
         <v>176</v>
-      </c>
-      <c r="B33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="25" customFormat="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1" hidden="1">
       <c r="A35" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="25" customFormat="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1" hidden="1">
       <c r="A36" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
+      <c r="A38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" t="s">
         <v>267</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D38" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="25" customFormat="1" hidden="1">
+      <c r="A39" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="C37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="25" customFormat="1">
-      <c r="A39" s="25" t="s">
-        <v>271</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="25" customFormat="1">
+        <v>272</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="25" customFormat="1" hidden="1">
       <c r="A42" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="25" customFormat="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="25" customFormat="1" hidden="1">
       <c r="A43" s="25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>288</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>289</v>
       </c>
-      <c r="C45" t="s">
-        <v>276</v>
+      <c r="C47" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1">
+      <c r="D48" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D45" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}"/>
+  <autoFilter ref="A1:D48" xr:uid="{33881FCE-2117-4CD6-93F6-459B01EAFB21}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{312CCE9E-8CFF-4FD4-81BC-992125EC1C3E}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{D03D4ACC-2659-43ED-AD87-89AB74D91681}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{15AC75D4-BED7-4ACE-BE5D-0E6A2C3B95EF}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{DFABFF06-142F-432E-82B4-E9BD2159820D}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{6C2CD797-B68C-4354-838D-18CC3DF769B1}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{2B99C12E-D504-4849-A69F-423BDC1F8031}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{9982DF4B-BF50-46DE-A897-F40B0729B414}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{02FB35DD-2201-490D-B181-7BAD3A0016D9}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{B1924B2F-59CF-425F-AFDC-4FD064FF728A}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{C01E5BB3-49D0-4AFE-9C3E-580E03750A34}"/>
+    <hyperlink ref="D29" r:id="rId11" xr:uid="{B38977BB-6407-4DB4-B528-4EA2B14E04D8}"/>
+    <hyperlink ref="D44" r:id="rId12" xr:uid="{3FAF8BE6-F013-4CE5-80CC-0800183A0346}"/>
+    <hyperlink ref="D46" r:id="rId13" xr:uid="{42A1D66C-7A63-4A65-8FD8-B8D6990C8651}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F73227-F3C8-4CC9-A24D-E347B2BC39E4}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B43F9E-FFC7-4D12-A7E4-67E1DBD2E306}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2510,161 +2762,161 @@
   <sheetData>
     <row r="1" spans="1:7" s="16" customFormat="1" ht="31.5" thickBot="1">
       <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="B2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.5" thickBot="1">
       <c r="B3" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" thickBot="1">
       <c r="B4" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" thickBot="1">
       <c r="B5" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="E5" t="s">
-        <v>120</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="B6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="F10" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECF38F2-7897-4D65-8C13-AE2B780A481B}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
@@ -2691,12 +2943,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("'",A2,"'")</f>
@@ -2707,28 +2959,28 @@
         <v>SlotSet('budget',None),</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B29" si="0">CONCATENATE("'",A3,"'")</f>
         <v>'cast_name'</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:D29" si="1">CONCATENATE("SlotSet(", B3,",None),")</f>
+        <f t="shared" ref="C3:C29" si="1">CONCATENATE("SlotSet(", B3,",None),")</f>
         <v>SlotSet('cast_name',None),</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -2739,12 +2991,12 @@
         <v>SlotSet('character',None),</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -2755,12 +3007,12 @@
         <v>SlotSet('condition_col',None),</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -2771,12 +3023,12 @@
         <v>SlotSet('condition_operator',None),</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -2787,12 +3039,12 @@
         <v>SlotSet('condition_val',None),</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -2803,12 +3055,12 @@
         <v>SlotSet('Costume_Design',None),</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -2819,12 +3071,12 @@
         <v>SlotSet('Director',None),</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -2835,12 +3087,12 @@
         <v>SlotSet('Editor',None),</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -2851,12 +3103,12 @@
         <v>SlotSet('file_name',None),</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -2867,12 +3119,12 @@
         <v>SlotSet('genre',None),</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -2883,12 +3135,12 @@
         <v>SlotSet('keyword',None),</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -2899,12 +3151,12 @@
         <v>SlotSet('language',None),</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -2915,12 +3167,12 @@
         <v>SlotSet('media',None),</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -2931,12 +3183,12 @@
         <v>SlotSet('movie',None),</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -2947,12 +3199,12 @@
         <v>SlotSet('original_language',None),</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -2963,12 +3215,12 @@
         <v>SlotSet('persistance',None),</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -2979,12 +3231,12 @@
         <v>SlotSet('plot',None),</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -2995,12 +3247,12 @@
         <v>SlotSet('Producer',None),</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -3011,12 +3263,12 @@
         <v>SlotSet('rank_axis',None),</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -3027,12 +3279,12 @@
         <v>SlotSet('ranked_col',None),</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -3043,12 +3295,12 @@
         <v>SlotSet('revenue',None),</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -3059,12 +3311,12 @@
         <v>SlotSet('row_number',None),</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -3075,12 +3327,12 @@
         <v>SlotSet('row_range',None),</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -3091,12 +3343,12 @@
         <v>SlotSet('sort_col',None),</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -3107,12 +3359,12 @@
         <v>SlotSet('top_bottom',None),</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -3123,12 +3375,12 @@
         <v>SlotSet('year',None),</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -3139,109 +3391,109 @@
         <v>SlotSet('ascending_descending',None),</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
         <v>205</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>206</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>207</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>208</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>209</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>210</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>211</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>212</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>213</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>214</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>215</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>216</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>217</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
         <v>218</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>219</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" t="s">
         <v>220</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="T31" t="s">
         <v>221</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U31" t="s">
         <v>222</v>
       </c>
-      <c r="S31" t="s">
+      <c r="V31" t="s">
         <v>223</v>
       </c>
-      <c r="T31" t="s">
+      <c r="W31" t="s">
         <v>224</v>
       </c>
-      <c r="U31" t="s">
+      <c r="X31" t="s">
         <v>225</v>
       </c>
-      <c r="V31" t="s">
+      <c r="Y31" t="s">
         <v>226</v>
       </c>
-      <c r="W31" t="s">
+      <c r="Z31" t="s">
         <v>227</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AA31" t="s">
         <v>228</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AB31" t="s">
         <v>229</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
